--- a/PropiedadesInfocasas.xlsx
+++ b/PropiedadesInfocasas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t xml:space="preserve">Precio</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">Salto</t>
   </si>
   <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juan Gomez</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t xml:space="preserve">Pedro Bustamante</t>
   </si>
   <si>
+    <t xml:space="preserve">402</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inmobiliaria Golf</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t xml:space="preserve">Arocena</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos Gutierrez</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t xml:space="preserve">Herrera y Reissig</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cristian Rodriguez</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t xml:space="preserve">Rizal</t>
   </si>
   <si>
+    <t xml:space="preserve">803</t>
+  </si>
+  <si>
     <t xml:space="preserve">Claudio Corral</t>
   </si>
   <si>
@@ -196,6 +211,9 @@
     <t xml:space="preserve">Isla de Flores</t>
   </si>
   <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inmobiliaria Palermo</t>
   </si>
   <si>
@@ -232,6 +250,9 @@
     <t xml:space="preserve">Ponce</t>
   </si>
   <si>
+    <t xml:space="preserve">1202</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centro</t>
   </si>
   <si>
@@ -244,6 +265,9 @@
     <t xml:space="preserve">Santiago de Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniel Odriozola</t>
   </si>
   <si>
@@ -259,9 +283,6 @@
     <t xml:space="preserve">Descripción de publicación 11</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Caramuru</t>
   </si>
   <si>
@@ -283,6 +304,9 @@
     <t xml:space="preserve">Pilcomayo</t>
   </si>
   <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marcelo Rondón</t>
   </si>
   <si>
@@ -307,6 +331,9 @@
     <t xml:space="preserve">Fernández Crespo</t>
   </si>
   <si>
+    <t xml:space="preserve">403</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adelina Cuadrado</t>
   </si>
   <si>
@@ -325,6 +352,9 @@
     <t xml:space="preserve">Camino Coronel Raíz</t>
   </si>
   <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fernando Morena</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
     <t xml:space="preserve">Av Brasil</t>
   </si>
   <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
     <t xml:space="preserve">Javier Bolazi</t>
   </si>
   <si>
@@ -401,6 +434,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702</t>
   </si>
   <si>
     <t xml:space="preserve">Inmobiliaria Arocena</t>
@@ -574,16 +610,16 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
@@ -682,20 +718,20 @@
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>101</v>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,13 +739,13 @@
         <v>22000</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -721,28 +757,28 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>402</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>4</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,16 +786,16 @@
         <v>65500</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>135</v>
@@ -768,28 +804,28 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,13 +833,13 @@
         <v>21000</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -815,28 +851,28 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,46 +880,46 @@
         <v>52000</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>110</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,13 +927,13 @@
         <v>38000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -909,28 +945,28 @@
         <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>803</v>
+        <v>56</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>8</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +977,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -962,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>601</v>
+        <v>62</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,16 +1021,16 @@
         <v>35000</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>182</v>
@@ -1003,28 +1039,28 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,13 +1068,13 @@
         <v>27000</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -1050,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>1202</v>
+        <v>75</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>12</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,13 +1115,13 @@
         <v>14000</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -1103,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>8</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,46 +1162,46 @@
         <v>75000</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>280</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,13 +1209,13 @@
         <v>40000</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -1191,28 +1227,28 @@
         <v>18</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>202</v>
+        <v>93</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,13 +1256,13 @@
         <v>19300</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -1238,28 +1274,28 @@
         <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,13 +1303,13 @@
         <v>19800</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1285,28 +1321,28 @@
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>403</v>
+        <v>102</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,13 +1350,13 @@
         <v>11000</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
@@ -1338,22 +1374,22 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>306</v>
+        <v>109</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,16 +1397,16 @@
         <v>14000</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>38</v>
@@ -1385,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,46 +1444,46 @@
         <v>55000</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>154</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,13 +1491,13 @@
         <v>17500</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
@@ -1479,22 +1515,22 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,13 +1538,13 @@
         <v>29500</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
@@ -1520,28 +1556,28 @@
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>102</v>
+        <v>131</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,13 +1585,13 @@
         <v>29000</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
@@ -1573,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>702</v>
+        <v>137</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>7</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,16 +1632,16 @@
         <v>63500</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>99</v>
@@ -1614,28 +1650,28 @@
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,13 +1679,13 @@
         <v>18000</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
@@ -1661,28 +1697,28 @@
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>702</v>
+        <v>149</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>7</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/PropiedadesInfocasas.xlsx
+++ b/PropiedadesInfocasas.xlsx
@@ -70,10 +70,10 @@
     <t xml:space="preserve">Palermo</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 1</t>
+    <t xml:space="preserve">Infocasas – Publicación 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -94,10 +94,10 @@
     <t xml:space="preserve">Buceo</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 2</t>
+    <t xml:space="preserve">Infocasas – Publicación 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -118,10 +118,10 @@
     <t xml:space="preserve">Carrasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 3</t>
+    <t xml:space="preserve">Infocasas – Publicación 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 3</t>
   </si>
   <si>
     <t xml:space="preserve">House</t>
@@ -145,10 +145,10 @@
     <t xml:space="preserve">Parque Rodó</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 4</t>
+    <t xml:space="preserve">Infocasas – Publicación 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 4</t>
   </si>
   <si>
     <t xml:space="preserve">Herrera y Reissig</t>
@@ -166,10 +166,10 @@
     <t xml:space="preserve">Pocitos</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 5</t>
+    <t xml:space="preserve">Infocasas – Publicación 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 5</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -184,10 +184,10 @@
     <t xml:space="preserve">29024325</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 6</t>
+    <t xml:space="preserve">Infocasas – Publicación 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 6</t>
   </si>
   <si>
     <t xml:space="preserve">Rizal</t>
@@ -202,10 +202,10 @@
     <t xml:space="preserve">29024326</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 7</t>
+    <t xml:space="preserve">Infocasas – Publicación 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 7</t>
   </si>
   <si>
     <t xml:space="preserve">Isla de Flores</t>
@@ -223,10 +223,10 @@
     <t xml:space="preserve">Cordón</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 8</t>
+    <t xml:space="preserve">Infocasas – Publicación 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 8</t>
   </si>
   <si>
     <t xml:space="preserve">Colonia</t>
@@ -241,10 +241,10 @@
     <t xml:space="preserve">Parque Batlle</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 9</t>
+    <t xml:space="preserve">Infocasas – Publicación 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 9</t>
   </si>
   <si>
     <t xml:space="preserve">Ponce</t>
@@ -256,10 +256,10 @@
     <t xml:space="preserve">Centro</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 10</t>
+    <t xml:space="preserve">Infocasas – Publicación 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 10</t>
   </si>
   <si>
     <t xml:space="preserve">Santiago de Chile</t>
@@ -277,10 +277,10 @@
     <t xml:space="preserve">Punta Gorda</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 11</t>
+    <t xml:space="preserve">Infocasas – Publicación 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 11</t>
   </si>
   <si>
     <t xml:space="preserve">Caramuru</t>
@@ -295,10 +295,10 @@
     <t xml:space="preserve">Malvín</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 12</t>
+    <t xml:space="preserve">Infocasas – Publicación 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 12</t>
   </si>
   <si>
     <t xml:space="preserve">Pilcomayo</t>
@@ -313,19 +313,19 @@
     <t xml:space="preserve">29024332</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 13</t>
+    <t xml:space="preserve">Infocasas – Publicación 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 13</t>
   </si>
   <si>
     <t xml:space="preserve">Tristnán Narvaja</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 14</t>
+    <t xml:space="preserve">Infocasas – Publicación 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 14</t>
   </si>
   <si>
     <t xml:space="preserve">Fernández Crespo</t>
@@ -343,10 +343,10 @@
     <t xml:space="preserve">Peñarol</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 15</t>
+    <t xml:space="preserve">Infocasas – Publicación 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 15</t>
   </si>
   <si>
     <t xml:space="preserve">Camino Coronel Raíz</t>
@@ -364,10 +364,10 @@
     <t xml:space="preserve">Aguada</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 16</t>
+    <t xml:space="preserve">Infocasas – Publicación 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 16</t>
   </si>
   <si>
     <t xml:space="preserve">Nueva York</t>
@@ -379,10 +379,10 @@
     <t xml:space="preserve">29024336</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 17</t>
+    <t xml:space="preserve">Infocasas – Publicación 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 17</t>
   </si>
   <si>
     <t xml:space="preserve">Soca</t>
@@ -394,10 +394,10 @@
     <t xml:space="preserve">29024337</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 18</t>
+    <t xml:space="preserve">Infocasas – Publicación 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 18</t>
   </si>
   <si>
     <t xml:space="preserve">Ramón Anador</t>
@@ -409,10 +409,10 @@
     <t xml:space="preserve">29024338</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 19</t>
+    <t xml:space="preserve">Infocasas – Publicación 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 19</t>
   </si>
   <si>
     <t xml:space="preserve">Av Brasil</t>
@@ -427,10 +427,10 @@
     <t xml:space="preserve">29024339</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 20</t>
+    <t xml:space="preserve">Infocasas – Publicación 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 20</t>
   </si>
   <si>
     <t xml:space="preserve">Rivera</t>
@@ -445,10 +445,10 @@
     <t xml:space="preserve">29024340</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 21</t>
+    <t xml:space="preserve">Infocasas – Publicación 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 21</t>
   </si>
   <si>
     <t xml:space="preserve">Rimac</t>
@@ -463,10 +463,10 @@
     <t xml:space="preserve">Ciudad Vieja</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicación 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de publicación 22</t>
+    <t xml:space="preserve">Infocasas – Publicación 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas – Descripción 22</t>
   </si>
   <si>
     <t xml:space="preserve">Treinta y tres</t>
@@ -566,7 +566,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,10 +580,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,18 +606,19 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.43"/>
@@ -744,7 +741,7 @@
       <c r="C3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -815,10 +812,10 @@
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -879,13 +876,13 @@
       <c r="A6" s="3" t="n">
         <v>52000</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="0" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -909,10 +906,10 @@
       <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -926,7 +923,7 @@
       <c r="A7" s="3" t="n">
         <v>38000</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1012,7 +1009,7 @@
       <c r="N8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1026,7 +1023,7 @@
       <c r="C9" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="0" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1050,10 +1047,10 @@
       <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -1067,7 +1064,7 @@
       <c r="A10" s="3" t="n">
         <v>27000</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1091,7 +1088,7 @@
       <c r="I10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1103,10 +1100,10 @@
       <c r="M10" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1144,7 +1141,7 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>81</v>
       </c>
       <c r="M11" s="3" t="n">
@@ -1158,7 +1155,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <v>75000</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1167,7 +1164,7 @@
       <c r="C12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1191,10 +1188,10 @@
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -1294,7 +1291,7 @@
       <c r="N14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1308,7 +1305,7 @@
       <c r="C15" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="0" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1426,10 +1423,10 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="M17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1449,7 +1446,7 @@
       <c r="C18" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="0" t="s">
         <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1473,10 +1470,10 @@
       <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -1537,7 +1534,7 @@
       <c r="A20" s="3" t="n">
         <v>29500</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -1573,7 +1570,7 @@
       <c r="M20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="4" t="s">
         <v>133</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -1590,7 +1587,7 @@
       <c r="C21" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="0" t="s">
         <v>136</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1661,10 +1658,10 @@
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -1702,7 +1699,7 @@
       <c r="I23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>149</v>
       </c>
       <c r="K23" s="3" t="s">

--- a/PropiedadesInfocasas.xlsx
+++ b/PropiedadesInfocasas.xlsx
@@ -70,10 +70,10 @@
     <t xml:space="preserve">Palermo</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 1</t>
+    <t xml:space="preserve">Infocasas Publicación 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -94,10 +94,10 @@
     <t xml:space="preserve">Buceo</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 2</t>
+    <t xml:space="preserve">Infocasas Publicación 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -118,10 +118,10 @@
     <t xml:space="preserve">Carrasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 3</t>
+    <t xml:space="preserve">Infocasas Publicación 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 3</t>
   </si>
   <si>
     <t xml:space="preserve">House</t>
@@ -145,10 +145,10 @@
     <t xml:space="preserve">Parque Rodó</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 4</t>
+    <t xml:space="preserve">Infocasas Publicación 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 4</t>
   </si>
   <si>
     <t xml:space="preserve">Herrera y Reissig</t>
@@ -166,10 +166,10 @@
     <t xml:space="preserve">Pocitos</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 5</t>
+    <t xml:space="preserve">Infocasas Publicación 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 5</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -184,10 +184,10 @@
     <t xml:space="preserve">29024325</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 6</t>
+    <t xml:space="preserve">Infocasas Publicación 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 6</t>
   </si>
   <si>
     <t xml:space="preserve">Rizal</t>
@@ -202,10 +202,10 @@
     <t xml:space="preserve">29024326</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 7</t>
+    <t xml:space="preserve">Infocasas Publicación 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 7</t>
   </si>
   <si>
     <t xml:space="preserve">Isla de Flores</t>
@@ -223,10 +223,10 @@
     <t xml:space="preserve">Cordón</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 8</t>
+    <t xml:space="preserve">Infocasas Publicación 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 8</t>
   </si>
   <si>
     <t xml:space="preserve">Colonia</t>
@@ -241,10 +241,10 @@
     <t xml:space="preserve">Parque Batlle</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 9</t>
+    <t xml:space="preserve">Infocasas Publicación 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 9</t>
   </si>
   <si>
     <t xml:space="preserve">Ponce</t>
@@ -256,10 +256,10 @@
     <t xml:space="preserve">Centro</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 10</t>
+    <t xml:space="preserve">Infocasas Publicación 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 10</t>
   </si>
   <si>
     <t xml:space="preserve">Santiago de Chile</t>
@@ -277,10 +277,10 @@
     <t xml:space="preserve">Punta Gorda</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 11</t>
+    <t xml:space="preserve">Infocasas Publicación 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 11</t>
   </si>
   <si>
     <t xml:space="preserve">Caramuru</t>
@@ -295,10 +295,10 @@
     <t xml:space="preserve">Malvín</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 12</t>
+    <t xml:space="preserve">Infocasas Publicación 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 12</t>
   </si>
   <si>
     <t xml:space="preserve">Pilcomayo</t>
@@ -313,19 +313,19 @@
     <t xml:space="preserve">29024332</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 13</t>
+    <t xml:space="preserve">Infocasas Publicación 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 13</t>
   </si>
   <si>
     <t xml:space="preserve">Tristnán Narvaja</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 14</t>
+    <t xml:space="preserve">Infocasas Publicación 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 14</t>
   </si>
   <si>
     <t xml:space="preserve">Fernández Crespo</t>
@@ -343,10 +343,10 @@
     <t xml:space="preserve">Peñarol</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 15</t>
+    <t xml:space="preserve">Infocasas Publicación 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 15</t>
   </si>
   <si>
     <t xml:space="preserve">Camino Coronel Raíz</t>
@@ -364,10 +364,10 @@
     <t xml:space="preserve">Aguada</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 16</t>
+    <t xml:space="preserve">Infocasas Publicación 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 16</t>
   </si>
   <si>
     <t xml:space="preserve">Nueva York</t>
@@ -379,10 +379,10 @@
     <t xml:space="preserve">29024336</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 17</t>
+    <t xml:space="preserve">Infocasas Publicación 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 17</t>
   </si>
   <si>
     <t xml:space="preserve">Soca</t>
@@ -394,10 +394,10 @@
     <t xml:space="preserve">29024337</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 18</t>
+    <t xml:space="preserve">Infocasas Publicación 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 18</t>
   </si>
   <si>
     <t xml:space="preserve">Ramón Anador</t>
@@ -409,10 +409,10 @@
     <t xml:space="preserve">29024338</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 19</t>
+    <t xml:space="preserve">Infocasas Publicación 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 19</t>
   </si>
   <si>
     <t xml:space="preserve">Av Brasil</t>
@@ -427,10 +427,10 @@
     <t xml:space="preserve">29024339</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 20</t>
+    <t xml:space="preserve">Infocasas Publicación 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 20</t>
   </si>
   <si>
     <t xml:space="preserve">Rivera</t>
@@ -445,10 +445,10 @@
     <t xml:space="preserve">29024340</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 21</t>
+    <t xml:space="preserve">Infocasas Publicación 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 21</t>
   </si>
   <si>
     <t xml:space="preserve">Rimac</t>
@@ -463,10 +463,10 @@
     <t xml:space="preserve">Ciudad Vieja</t>
   </si>
   <si>
-    <t xml:space="preserve">Infocasas – Publicación 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infocasas – Descripción 22</t>
+    <t xml:space="preserve">Infocasas Publicación 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infocasas Descripción 22</t>
   </si>
   <si>
     <t xml:space="preserve">Treinta y tres</t>
@@ -609,10 +609,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.4"/>

--- a/PropiedadesInfocasas.xlsx
+++ b/PropiedadesInfocasas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="165">
   <si>
     <t xml:space="preserve">Precio</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">contactoTelefono</t>
   </si>
   <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palermo</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t xml:space="preserve">29024321</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamento-1-dormitorio-vista-rambla-terraza/187097123?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buceo</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">29024322</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamentos-en-buceo/187066776?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carrasco</t>
   </si>
   <si>
@@ -142,7 +151,7 @@
     <t xml:space="preserve">29024323</t>
   </si>
   <si>
-    <t xml:space="preserve">Parque Rodó</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/casa-en-alquiler-3-dormitorios/186581705?a</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 4</t>
@@ -151,7 +160,7 @@
     <t xml:space="preserve">Infocasas Descripción 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Herrera y Reissig</t>
+    <t xml:space="preserve">Rivera</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -163,6 +172,9 @@
     <t xml:space="preserve">29024324</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-apartamento-carrasco-2-dormitorios-garaje-centrico-prximo-harwood/186329493?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pocitos</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t xml:space="preserve">29024325</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-casa-pocitos-para-oficinas-o-consultorios/186407591?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 6</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t xml:space="preserve">29024326</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-apartamento-buceo-3-dormitorios/186966609?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 7</t>
   </si>
   <si>
@@ -220,7 +238,10 @@
     <t xml:space="preserve">29024342</t>
   </si>
   <si>
-    <t xml:space="preserve">Cordón</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-apartamento-1-dormitorio-en-centro-sur-con-patio/186913281?a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordon</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 8</t>
@@ -238,7 +259,7 @@
     <t xml:space="preserve">29024328</t>
   </si>
   <si>
-    <t xml:space="preserve">Parque Batlle</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/casa-cordn-al-frente-sin-gastos-comunes-amplio-locomocin/186619747?a</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 9</t>
@@ -253,6 +274,9 @@
     <t xml:space="preserve">1202</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamento-en-alquiler-en-carrasco/187271950?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centro</t>
   </si>
   <si>
@@ -274,7 +298,7 @@
     <t xml:space="preserve">29024330</t>
   </si>
   <si>
-    <t xml:space="preserve">Punta Gorda</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-1-dormitorio-a-estrenar-en-el-centro/186999536?a</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 11</t>
@@ -283,16 +307,16 @@
     <t xml:space="preserve">Infocasas Descripción 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Caramuru</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marcos Galperin</t>
   </si>
   <si>
     <t xml:space="preserve">29024331</t>
   </si>
   <si>
-    <t xml:space="preserve">Malvín</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-de-casa-4-dormitorios-carrasco-sur-ideal-empresa/187238160?a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malvin</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 12</t>
@@ -313,6 +337,9 @@
     <t xml:space="preserve">29024332</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-apartamento-donizetti-y-verdi/187205716?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 13</t>
   </si>
   <si>
@@ -322,6 +349,9 @@
     <t xml:space="preserve">Tristnán Narvaja</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamentos-en-cordn/187219804?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 14</t>
   </si>
   <si>
@@ -340,7 +370,10 @@
     <t xml:space="preserve">29024334</t>
   </si>
   <si>
-    <t xml:space="preserve">Peñarol</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/2-dorm-av-uruguay-y-tacuarembo-al-frente-21000/187241533?a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguada</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 15</t>
@@ -361,7 +394,7 @@
     <t xml:space="preserve">29024335</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguada</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamentos-en-aguada/187238043?a</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 16</t>
@@ -379,6 +412,9 @@
     <t xml:space="preserve">29024336</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/casa-aguada/186519496?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 17</t>
   </si>
   <si>
@@ -394,6 +430,9 @@
     <t xml:space="preserve">29024337</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/excelente-punto-comercial/186654400?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 18</t>
   </si>
   <si>
@@ -409,6 +448,9 @@
     <t xml:space="preserve">29024338</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/amplio-loft-en-buceo/186527112?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 19</t>
   </si>
   <si>
@@ -427,15 +469,15 @@
     <t xml:space="preserve">29024339</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamento-2-dormitorio-pocitos/186938134?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 20</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Descripción 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Rivera</t>
-  </si>
-  <si>
     <t xml:space="preserve">702</t>
   </si>
   <si>
@@ -445,6 +487,9 @@
     <t xml:space="preserve">29024340</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquiler-casa-en-carrasco-1-dormitorio/186711220?a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infocasas Publicación 21</t>
   </si>
   <si>
@@ -460,7 +505,7 @@
     <t xml:space="preserve">29024341</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad Vieja</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/alquilo-casa-3-dormitorios-malvin/187088603?a</t>
   </si>
   <si>
     <t xml:space="preserve">Infocasas Publicación 22</t>
@@ -469,7 +514,7 @@
     <t xml:space="preserve">Infocasas Descripción 22</t>
   </si>
   <si>
-    <t xml:space="preserve">Treinta y tres</t>
+    <t xml:space="preserve">https://www.infocasas.com.uy/apartamentos-en-alquiler-en-regency-rambla-rambla/186541115?a</t>
   </si>
 </sst>
 </file>
@@ -566,7 +611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,6 +626,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -606,25 +655,27 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2:D23"/>
+      <selection pane="bottomLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="84.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +724,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -689,13 +742,13 @@
         <v>17000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -704,31 +757,34 @@
         <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,13 +792,13 @@
         <v>22000</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -751,31 +807,34 @@
         <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>4</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,46 +842,49 @@
         <v>65500</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>135</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,13 +892,13 @@
         <v>21000</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -845,92 +907,98 @@
         <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>52000</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>110</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>38000</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -939,31 +1007,34 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>8</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,13 +1042,13 @@
         <v>16000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -986,31 +1057,34 @@
         <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,60 +1092,63 @@
         <v>35000</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>182</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>27000</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>72</v>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -1080,31 +1157,34 @@
         <v>61</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>75</v>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>71</v>
+      <c r="N10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,13 +1192,13 @@
         <v>14000</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -1127,78 +1207,84 @@
         <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>8</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>75000</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>280</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,13 +1292,13 @@
         <v>40000</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -1221,31 +1307,34 @@
         <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,13 +1342,13 @@
         <v>19300</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -1268,31 +1357,34 @@
         <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,13 +1392,13 @@
         <v>19800</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1315,31 +1407,34 @@
         <v>77</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,13 +1442,13 @@
         <v>11000</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
@@ -1362,31 +1457,34 @@
         <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,46 +1492,49 @@
         <v>14000</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,46 +1542,49 @@
         <v>55000</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>154</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,13 +1592,13 @@
         <v>17500</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
@@ -1503,45 +1607,48 @@
         <v>51</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>29500</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
@@ -1550,31 +1657,34 @@
         <v>63</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>133</v>
+      <c r="N20" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,13 +1692,13 @@
         <v>29000</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
@@ -1597,31 +1707,34 @@
         <v>50</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>7</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,46 +1742,49 @@
         <v>63500</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,13 +1792,13 @@
         <v>18000</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
@@ -1691,34 +1807,61 @@
         <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>149</v>
+      <c r="J23" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>7</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" display="https://www.infocasas.com.uy/apartamento-1-dormitorio-vista-rambla-terraza/187097123?a"/>
+    <hyperlink ref="P3" r:id="rId2" display="https://www.infocasas.com.uy/apartamentos-en-buceo/187066776?a"/>
+    <hyperlink ref="P4" r:id="rId3" display="https://www.infocasas.com.uy/casa-en-alquiler-3-dormitorios/186581705?a"/>
+    <hyperlink ref="P5" r:id="rId4" display="https://www.infocasas.com.uy/alquiler-apartamento-carrasco-2-dormitorios-garaje-centrico-prximo-harwood/186329493?a"/>
+    <hyperlink ref="P6" r:id="rId5" display="https://www.infocasas.com.uy/alquiler-casa-pocitos-para-oficinas-o-consultorios/186407591?a"/>
+    <hyperlink ref="P7" r:id="rId6" display="https://www.infocasas.com.uy/alquiler-apartamento-buceo-3-dormitorios/186966609?a"/>
+    <hyperlink ref="P8" r:id="rId7" display="https://www.infocasas.com.uy/alquiler-apartamento-1-dormitorio-en-centro-sur-con-patio/186913281?a"/>
+    <hyperlink ref="P9" r:id="rId8" display="https://www.infocasas.com.uy/casa-cordn-al-frente-sin-gastos-comunes-amplio-locomocin/186619747?a"/>
+    <hyperlink ref="P10" r:id="rId9" display="https://www.infocasas.com.uy/apartamento-en-alquiler-en-carrasco/187271950?a"/>
+    <hyperlink ref="P11" r:id="rId10" display="https://www.infocasas.com.uy/alquiler-1-dormitorio-a-estrenar-en-el-centro/186999536?a"/>
+    <hyperlink ref="P12" r:id="rId11" display="https://www.infocasas.com.uy/alquiler-de-casa-4-dormitorios-carrasco-sur-ideal-empresa/187238160?a"/>
+    <hyperlink ref="P13" r:id="rId12" display="https://www.infocasas.com.uy/alquiler-apartamento-donizetti-y-verdi/187205716?a"/>
+    <hyperlink ref="P14" r:id="rId13" display="https://www.infocasas.com.uy/apartamentos-en-cordn/187219804?a"/>
+    <hyperlink ref="P15" r:id="rId14" display="https://www.infocasas.com.uy/2-dorm-av-uruguay-y-tacuarembo-al-frente-21000/187241533?a"/>
+    <hyperlink ref="P16" r:id="rId15" display="https://www.infocasas.com.uy/apartamentos-en-aguada/187238043?a"/>
+    <hyperlink ref="P17" r:id="rId16" display="https://www.infocasas.com.uy/casa-aguada/186519496?a"/>
+    <hyperlink ref="P18" r:id="rId17" display="https://www.infocasas.com.uy/excelente-punto-comercial/186654400?a"/>
+    <hyperlink ref="P19" r:id="rId18" display="https://www.infocasas.com.uy/amplio-loft-en-buceo/186527112?a"/>
+    <hyperlink ref="P20" r:id="rId19" display="https://www.infocasas.com.uy/apartamento-2-dormitorio-pocitos/186938134?a"/>
+    <hyperlink ref="P21" r:id="rId20" display="https://www.infocasas.com.uy/alquiler-casa-en-carrasco-1-dormitorio/186711220?a"/>
+    <hyperlink ref="P22" r:id="rId21" display="https://www.infocasas.com.uy/alquilo-casa-3-dormitorios-malvin/187088603?a"/>
+    <hyperlink ref="P23" r:id="rId22" display="https://www.infocasas.com.uy/apartamentos-en-alquiler-en-regency-rambla-rambla/186541115?a"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
